--- a/lib/cities_url.xlsx
+++ b/lib/cities_url.xlsx
@@ -58,6 +58,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Апостолово</t>
     </r>
@@ -78,6 +79,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Апостолово</t>
     </r>
@@ -332,7 +334,7 @@
     <t xml:space="preserve">shiny-gorishnie-plavni</t>
   </si>
   <si>
-    <t xml:space="preserve">Горишние Плавные</t>
+    <t xml:space="preserve">Горишние Плавни</t>
   </si>
   <si>
     <t xml:space="preserve">Горішні Плавні</t>
@@ -1412,6 +1414,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1476,7 +1479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1609,13 +1612,13 @@
   </sheetPr>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
@@ -1623,7 +1626,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1640,7 +1643,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1657,7 +1660,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1674,7 +1677,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1691,7 +1694,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1708,7 +1711,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1725,7 +1728,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1742,7 +1745,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1759,7 +1762,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1776,7 +1779,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1793,7 +1796,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1810,7 +1813,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1827,7 +1830,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1844,7 +1847,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1861,7 +1864,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1878,7 +1881,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1895,7 +1898,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1912,7 +1915,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1929,7 +1932,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1946,7 +1949,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1963,7 +1966,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1980,7 +1983,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1997,7 +2000,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2014,7 +2017,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2031,7 +2034,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2048,7 +2051,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2065,7 +2068,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2082,7 +2085,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2099,7 +2102,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2116,7 +2119,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2133,7 +2136,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2150,7 +2153,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2167,7 +2170,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2184,7 +2187,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2201,7 +2204,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2218,7 +2221,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2235,7 +2238,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2252,7 +2255,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2269,7 +2272,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2286,7 +2289,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2303,7 +2306,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2320,7 +2323,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2337,7 +2340,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2354,7 +2357,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2371,7 +2374,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2388,7 +2391,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2405,7 +2408,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2422,7 +2425,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2439,7 +2442,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2456,7 +2459,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2473,7 +2476,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2490,7 +2493,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2507,7 +2510,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2524,7 +2527,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2541,7 +2544,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2558,7 +2561,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2575,7 +2578,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -2592,7 +2595,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -2609,7 +2612,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2626,7 +2629,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -2643,7 +2646,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2660,7 +2663,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2677,7 +2680,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2694,7 +2697,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -2711,7 +2714,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2728,7 +2731,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2745,7 +2748,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -2762,7 +2765,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2779,7 +2782,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -2796,7 +2799,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2813,7 +2816,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2830,7 +2833,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -2847,7 +2850,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2864,7 +2867,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -2881,7 +2884,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2898,7 +2901,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2915,7 +2918,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2932,7 +2935,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2949,7 +2952,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2966,7 +2969,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>374</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2983,7 +2986,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3000,7 +3003,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -3017,7 +3020,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -3034,7 +3037,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -3051,7 +3054,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3068,7 +3071,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3085,7 +3088,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -3102,7 +3105,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -3119,7 +3122,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>417</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -3136,7 +3139,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -3153,7 +3156,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -3170,7 +3173,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B92" s="1" t="s">
